--- a/efficiency.xlsx
+++ b/efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\Qien\Eclipse Workspace\Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFB881A-1EEE-44F9-A7DD-04F15C4B4238}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91878DC7-854B-46A8-8952-82E2562E3D4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54A8314F-1F24-4809-946A-AF7827222D93}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>time taken (range: [2,300_000])</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>3: check low to high</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5729FE8-E22E-4585-9503-8EBCBE4FF732}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +416,7 @@
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -423,8 +426,11 @@
       <c r="C1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -434,8 +440,11 @@
       <c r="C2" s="1">
         <v>9.8611111111111108E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>2.013888888888889E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -446,23 +455,40 @@
         <f>(1 - C2/B2)</f>
         <v>0.38793103448275867</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <f>(1 - D2/C2)</f>
+        <v>0.79577464788732388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <f>(1 - C2/B2)</f>
+        <v>0.38793103448275867</v>
+      </c>
+      <c r="D4" s="2">
+        <f>(1-D2-B2)</f>
+        <v>0.81874999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/efficiency.xlsx
+++ b/efficiency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\Qien\Eclipse Workspace\Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91878DC7-854B-46A8-8952-82E2562E3D4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1335BE-68F7-44A7-BB73-F7B46552571D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54A8314F-1F24-4809-946A-AF7827222D93}"/>
+    <workbookView xWindow="14040" yWindow="1644" windowWidth="17280" windowHeight="8964" xr2:uid="{54A8314F-1F24-4809-946A-AF7827222D93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
